--- a/public/sample_uploads/capital_commitments_multi_currency_1.xlsx
+++ b/public/sample_uploads/capital_commitments_multi_currency_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1161C0B6-D34C-40ED-B89D-E532DF8EC844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E8AD45-4032-4ABF-A024-1A26FE9F0D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="735" windowWidth="23985" windowHeight="14265" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CapitalCommitment" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <author>thimm</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{E8D3E9E5-BA31-4A2D-A598-2AA1E3439A30}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{E8D3E9E5-BA31-4A2D-A598-2AA1E3439A30}">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{FFA4ACA5-9F90-4374-B687-7434C1828962}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{FFA4ACA5-9F90-4374-B687-7434C1828962}">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="49">
   <si>
     <t>Investor *</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Fund *</t>
   </si>
   <si>
-    <t xml:space="preserve">Type * </t>
-  </si>
-  <si>
     <t>Folio Currency *</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
     <t>SAAS Fund</t>
   </si>
   <si>
-    <t>Pool</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
@@ -204,9 +198,6 @@
   </si>
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>CoInvest</t>
   </si>
   <si>
     <t>C1</t>
@@ -522,39 +513,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.625" customWidth="1"/>
-    <col min="2" max="3" width="13.1875" customWidth="1"/>
-    <col min="4" max="6" width="20.875" customWidth="1"/>
-    <col min="12" max="13" width="15.625" customWidth="1"/>
-    <col min="14" max="14" width="12.875" customWidth="1"/>
-    <col min="15" max="15" width="10.6875" customWidth="1"/>
-    <col min="16" max="16" width="13.5" customWidth="1"/>
-    <col min="17" max="17" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="13.1875" customWidth="1"/>
+    <col min="3" max="5" width="20.875" customWidth="1"/>
+    <col min="11" max="12" width="15.625" customWidth="1"/>
+    <col min="13" max="13" width="12.875" customWidth="1"/>
+    <col min="14" max="14" width="10.6875" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -604,511 +595,478 @@
       <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2">
+        <v>22500</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="3">
+        <v>44216</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2">
+        <v>80</v>
+      </c>
+      <c r="P2" s="3">
+        <v>44216</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" s="2">
+        <v>1800000</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="3">
+        <v>44216</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2800000</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="3">
+        <v>44216</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2">
+        <v>15000</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2">
-        <v>22500</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
         <v>23</v>
       </c>
-      <c r="G2">
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="3">
+        <v>44216</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5">
+        <v>80</v>
+      </c>
+      <c r="P5" s="3">
+        <v>44216</v>
+      </c>
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="3">
+        <v>44216</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s">
+        <v>37</v>
+      </c>
+      <c r="U6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="3">
+        <v>44216</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="T7" t="s">
+        <v>40</v>
+      </c>
+      <c r="U7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K8" s="3">
+        <v>44216</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8">
+        <v>7</v>
+      </c>
+      <c r="T8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U8">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="3">
-        <v>44216</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="F9">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="3">
+        <v>44216</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" t="s">
         <v>27</v>
       </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2">
-        <v>80</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>44216</v>
-      </c>
-      <c r="S2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2">
-        <v>100</v>
+      <c r="S9">
+        <v>8</v>
+      </c>
+      <c r="T9" t="s">
+        <v>44</v>
+      </c>
+      <c r="U9">
+        <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1800000</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K10" s="3">
+        <v>44216</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10">
+        <v>8</v>
+      </c>
+      <c r="T10" t="s">
+        <v>44</v>
+      </c>
+      <c r="U10">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="3">
-        <v>44216</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="F11">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="3">
+        <v>44216</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" t="s">
         <v>27</v>
       </c>
-      <c r="S3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-      <c r="U3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2800000</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4">
+      <c r="S11">
         <v>8</v>
       </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="3">
-        <v>44216</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4">
-        <v>3</v>
-      </c>
-      <c r="U4" t="s">
-        <v>36</v>
-      </c>
-      <c r="V4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2">
-        <v>15000</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="3">
-        <v>44216</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5">
-        <v>80</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>44216</v>
-      </c>
-      <c r="S5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5">
-        <v>4</v>
-      </c>
-      <c r="U5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="3">
-        <v>44216</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S6" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6">
-        <v>5</v>
-      </c>
-      <c r="U6" t="s">
-        <v>39</v>
-      </c>
-      <c r="V6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="3">
-        <v>44216</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S7" t="s">
-        <v>29</v>
-      </c>
-      <c r="T7">
-        <v>6</v>
-      </c>
-      <c r="U7" t="s">
-        <v>43</v>
-      </c>
-      <c r="V7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="T11" t="s">
         <v>44</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="3">
-        <v>44216</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S8" t="s">
-        <v>29</v>
-      </c>
-      <c r="T8">
-        <v>7</v>
-      </c>
-      <c r="U8" t="s">
-        <v>45</v>
-      </c>
-      <c r="V8">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="3">
-        <v>44216</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T9">
-        <v>8</v>
-      </c>
-      <c r="U9" t="s">
-        <v>47</v>
-      </c>
-      <c r="V9">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="3">
-        <v>44216</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S10" t="s">
-        <v>29</v>
-      </c>
-      <c r="T10">
-        <v>8</v>
-      </c>
-      <c r="U10" t="s">
-        <v>47</v>
-      </c>
-      <c r="V10">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11">
-        <v>55</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="3">
-        <v>44216</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S11" t="s">
-        <v>29</v>
-      </c>
-      <c r="T11">
-        <v>8</v>
-      </c>
-      <c r="U11" t="s">
-        <v>47</v>
-      </c>
-      <c r="V11">
+      <c r="U11">
         <v>800</v>
       </c>
     </row>
